--- a/Szoftvermodellezés és tesztelés/Architektúra tervezés/Követelmény követhetőségi mátrix.xlsx
+++ b/Szoftvermodellezés és tesztelés/Architektúra tervezés/Követelmény követhetőségi mátrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Szoftvermodellezés és tesztelés\Architektúra tervezés\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4591B44-9176-412D-B0F6-FE5E62493C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3D816-3097-4BEE-9397-3F5B03673DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="459" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" tabRatio="459" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -443,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -491,19 +491,28 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -950,48 +959,48 @@
   <sheetData>
     <row r="1" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1004,20 +1013,20 @@
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="2:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17">
@@ -1052,22 +1061,22 @@
       <c r="B5" s="22">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="30" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1089,12 +1098,12 @@
       <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1114,10 +1123,10 @@
       <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="23" t="s">
         <v>41</v>
       </c>
@@ -1201,16 +1210,16 @@
       <c r="B10" s="18">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1388,12 +1397,12 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
